--- a/10_Management/Exam_PMP.xlsx
+++ b/10_Management/Exam_PMP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BC026E-5AA2-4C8F-80AF-D6F91B161974}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{555BE4E7-C364-48CB-869A-97CF30B6D126}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="4" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" activeTab="5" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Full Test" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -453,6 +454,39 @@
   </si>
   <si>
     <t>user story mô tả feature or functinality desired bởi stakeholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việc change request thì không cần thiết phải đưa ra con số estimate </t>
+  </si>
+  <si>
+    <t>project management plan được tạo bởi PM nhưng requires input từ team</t>
+  </si>
+  <si>
+    <t>Cần project scope management first</t>
+  </si>
+  <si>
+    <t>project management plan là formal, approve document được sử dụng control project</t>
+  </si>
+  <si>
+    <t>baseline được include trong project managementplan</t>
+  </si>
+  <si>
+    <t>Which of the following describes the best use of historical records from previous projects?</t>
+  </si>
+  <si>
+    <t>historical là useful in estimating, risk management and overall project planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbs chia  project deliverable (scope) to smaller, define activities </t>
+  </si>
+  <si>
+    <t>Create WBS and Define Activities</t>
+  </si>
+  <si>
+    <t>Training in cultural differences between the other countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM cần phải tuân thủ policy của công ty </t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3E4B6E-32AB-4F9F-9656-4C5398F92691}">
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,7 +3162,7 @@
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
     </row>
-    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>32</v>
       </c>
@@ -3137,7 +3171,9 @@
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -3162,7 +3198,7 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
     </row>
-    <row r="35" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -3171,9 +3207,13 @@
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="G35" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -3324,16 +3364,22 @@
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
     </row>
-    <row r="39" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>37</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="E39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -3358,20 +3404,26 @@
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
     </row>
-    <row r="40" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="141.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>38</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -3504,7 +3556,7 @@
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
     </row>
-    <row r="44" spans="1:30" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>42</v>
       </c>
@@ -3521,7 +3573,9 @@
       <c r="F44" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -3584,7 +3638,7 @@
       <c r="AC45" s="14"/>
       <c r="AD45" s="14"/>
     </row>
-    <row r="46" spans="1:30" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>44</v>
       </c>
@@ -3599,7 +3653,9 @@
         <v>4</v>
       </c>
       <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="H46" s="10" t="s">
         <v>4</v>
       </c>
@@ -3626,16 +3682,20 @@
       <c r="AC46" s="11"/>
       <c r="AD46" s="11"/>
     </row>
-    <row r="47" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>45</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="E47" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="G47" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -3660,18 +3720,22 @@
       <c r="AC47" s="14"/>
       <c r="AD47" s="14"/>
     </row>
-    <row r="48" spans="1:30" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>46</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -3730,7 +3794,7 @@
       <c r="AC49" s="14"/>
       <c r="AD49" s="14"/>
     </row>
-    <row r="50" spans="1:30" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>48</v>
       </c>
@@ -3741,9 +3805,15 @@
       <c r="D50" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="E50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -34211,6 +34281,11 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50 E47:E48 E39:E40 E35" xr:uid="{FBFD9719-F5E8-4B85-AC5D-D8B5009619C0}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/10_Management/Exam_PMP.xlsx
+++ b/10_Management/Exam_PMP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBED206-EC59-47C2-A4A4-B25115E4A7DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EDFD16-1B56-4F2E-9253-82B2F7ABD4A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="1" activeTab="8" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="3" activeTab="6" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="scope" sheetId="10" r:id="rId4"/>
     <sheet name="Planning5" sheetId="3" r:id="rId5"/>
     <sheet name="Planning1" sheetId="11" r:id="rId6"/>
-    <sheet name="Domain-Planning" sheetId="12" r:id="rId7"/>
-    <sheet name="Domain-Executing" sheetId="13" r:id="rId8"/>
-    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId9"/>
-    <sheet name="Executing" sheetId="4" r:id="rId10"/>
-    <sheet name="Monitoring" sheetId="5" r:id="rId11"/>
-    <sheet name="Closing" sheetId="6" r:id="rId12"/>
-    <sheet name="Mock" sheetId="8" r:id="rId13"/>
-    <sheet name="Full Test" sheetId="9" r:id="rId14"/>
+    <sheet name="Executing1" sheetId="15" r:id="rId7"/>
+    <sheet name="Domain-Planning" sheetId="12" r:id="rId8"/>
+    <sheet name="Domain-Executing" sheetId="13" r:id="rId9"/>
+    <sheet name="Domain-Monitoring &amp; Controlling" sheetId="14" r:id="rId10"/>
+    <sheet name="Executing" sheetId="4" r:id="rId11"/>
+    <sheet name="Monitoring" sheetId="5" r:id="rId12"/>
+    <sheet name="Closing" sheetId="6" r:id="rId13"/>
+    <sheet name="Mock" sheetId="8" r:id="rId14"/>
+    <sheet name="Full Test" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="172">
   <si>
     <t>No</t>
   </si>
@@ -629,6 +630,9 @@
     <t>Monitor procurement activities according to the procurement plan in order to
 verify compliance with project objectives.</t>
   </si>
+  <si>
+    <t>Domain</t>
+  </si>
 </sst>
 </file>
 
@@ -885,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -948,6 +952,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -963,12 +973,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -978,6 +982,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1440,6 +1445,149 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A2" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A5" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A7" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8370EABC-5FB0-46E3-AC0D-18A12C9132DD}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -1725,7 +1873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150C828-5E38-4F9B-89F5-DE7664E9E60A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1737,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20858FF-860F-4DDB-90C1-5CC740EF8BB8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1749,7 +1897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E5ACBF-E712-4A9D-9910-ED74A62FE5AE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1761,7 +1909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C417280C-3257-4FCE-BFBC-576DD1B4382F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1966,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C982353-CA8A-4388-8859-7413C89A9E50}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2315,24 +2463,24 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -2355,7 +2503,7 @@
       <c r="AD1" s="9"/>
     </row>
     <row r="2" spans="1:30" ht="39.75" thickBot="1">
-      <c r="A2" s="23"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
@@ -34786,6 +34934,358 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="409.5">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="60">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="93" customHeight="1">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="165">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="90">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="75">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="90">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="75">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C28" xr:uid="{E6EFFE04-3B8B-4023-A3E9-B468FA87A6F4}">
+      <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{8F640CE0-5A66-4BCF-853C-BA928306A771}">
+      <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E6B415-86AF-44A1-9A0F-E640C770D3EB}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -34796,7 +35296,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="29" t="s">
@@ -34813,7 +35313,7 @@
       <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -34830,7 +35330,7 @@
       <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>135</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -34847,7 +35347,7 @@
       <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -34864,7 +35364,7 @@
       <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -34881,7 +35381,7 @@
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -34898,7 +35398,7 @@
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="23" t="s">
         <v>143</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -34915,7 +35415,7 @@
       <c r="K7" s="31"/>
     </row>
     <row r="8" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="23" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -34932,7 +35432,7 @@
       <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="23" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -34949,7 +35449,7 @@
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1" thickBot="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -34966,7 +35466,7 @@
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="23" t="s">
         <v>151</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -34983,7 +35483,7 @@
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="23" t="s">
         <v>153</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -35000,7 +35500,7 @@
       <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="23" t="s">
         <v>155</v>
       </c>
       <c r="B13" s="29" t="s">
@@ -35018,6 +35518,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -35025,29 +35531,23 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E3A676-4755-49BB-A0B9-3FC0BA4B80B3}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="A1:XFD1048576"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="22" t="s">
         <v>131</v>
       </c>
       <c r="B1" s="29" t="s">
@@ -35064,7 +35564,7 @@
       <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -35081,7 +35581,7 @@
       <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="23" t="s">
         <v>135</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -35098,7 +35598,7 @@
       <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -35115,7 +35615,7 @@
       <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -35132,7 +35632,7 @@
       <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -35149,154 +35649,11 @@
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="23" t="s">
         <v>143</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4D9506-FE81-4C50-86CB-42DFDE5F4697}">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A3" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A4" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A6" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>170</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>

--- a/10_Management/Exam_PMP.xlsx
+++ b/10_Management/Exam_PMP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\EBill\10_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\EBill\10_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EDFD16-1B56-4F2E-9253-82B2F7ABD4A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AEB048-E034-4945-AAA4-CBCDB57BAF18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="3" activeTab="6" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="6" activeTab="6" xr2:uid="{957D22A2-4D54-4148-9DDE-7A2AF7FA87D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="204">
   <si>
     <t>No</t>
   </si>
@@ -633,12 +633,108 @@
   <si>
     <t>Domain</t>
   </si>
+  <si>
+    <t>Không có khái niệm Giving stakeholders added value</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>seller đòi tăng giá, thì cần đàm phán để giảm giá=&gt; nằm trong conduct procurement</t>
+  </si>
+  <si>
+    <t>Emotional intelligence: sự đồng cảm</t>
+  </si>
+  <si>
+    <t>Emotional intelligence: sự đồng cảm. Trong phần manage team. Social awareness, để họ nói về 1 đặc điểm văn hóa ở chỗ họ để có thông cảm, tránh các risk tiềm ẩn</t>
+  </si>
+  <si>
+    <t>Note: đề k nói là cty bất hợp pháp chỉ là bảo mật nên là quit khỏi cty và k bàn luận về đề tài đó</t>
+  </si>
+  <si>
+    <t>code of ethics</t>
+  </si>
+  <si>
+    <t>Nếu có lợi thì cứ thỏa thuận 2 bên cùng có lợi.  Reference problem solving/ confronting =&gt; conflict management</t>
+  </si>
+  <si>
+    <t>Cần nắm lại code of ethics của PMI. Nếu có hành động illegal thì cần report lên manager</t>
+  </si>
+  <si>
+    <t>sử dụng withdrawing,</t>
+  </si>
+  <si>
+    <t>hiểu từ postpone = hoãn lại, nằm trong conflict management của manage Team</t>
+  </si>
+  <si>
+    <t>Note: Lessonlearn register là living document, nó được updated througout project</t>
+  </si>
+  <si>
+    <t>Chọn pa hợp lý nhất, không được đặt quyền lợi của mình trên những ng khác</t>
+  </si>
+  <si>
+    <t>Note: Code of ethics, tất cả các hành động trộm cắp đều report</t>
+  </si>
+  <si>
+    <t>Since it is illegal, ethically, you must refuse to make the payment.</t>
+  </si>
+  <si>
+    <t>Những hành động bất hợp pháp đều từ chối</t>
+  </si>
+  <si>
+    <t>Note: Any document created by someone else should be considered copyrighted information =&gt; có bản quyền. Xin phép là best choice</t>
+  </si>
+  <si>
+    <t>Note: từ chối tặng quà</t>
+  </si>
+  <si>
+    <t>Cần phải confirm thêm thông tin từ ng khác để có đủ thông tin</t>
+  </si>
+  <si>
+    <t>sử dụng delphi technique</t>
+  </si>
+  <si>
+    <t>Hiểu sai vấn đề, đang hiểu thuộc vấn đề communication</t>
+  </si>
+  <si>
+    <t>tìm hiểu lại về function organization</t>
+  </si>
+  <si>
+    <t>éo hiểu</t>
+  </si>
+  <si>
+    <t>hỏi thầy</t>
+  </si>
+  <si>
+    <t>dài vãi</t>
+  </si>
+  <si>
+    <t>tự tìm hiểu ý nghĩa</t>
+  </si>
+  <si>
+    <t>hiểu theo a Nam: dù ceo k quan tâm nhưng vẫn làm theo chuẩn PMI</t>
+  </si>
+  <si>
+    <t>Theo luật công ty làm</t>
+  </si>
+  <si>
+    <t>note: cứ hối lộ là remove luôn. You need to protect your company's interests and limit sellers from gaining information that can be used to their advantage in subsequent negotiations</t>
+  </si>
+  <si>
+    <t>nội bộ nên gặp riêng, với khách hàng thì hiểu root cause of the problem</t>
+  </si>
+  <si>
+    <t>dạng report cần issues, option</t>
+  </si>
+  <si>
+    <t>cần chú ý: hurting nhân viên,liên quan tới con ng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +767,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial-BoldMT"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -711,7 +815,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -885,11 +989,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -982,9 +1126,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1300,7 +1466,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34935,10 +35101,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762741B-203C-43CC-95E6-55D0B96E24E3}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34947,7 +35113,7 @@
     <col min="2" max="2" width="65.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
@@ -34964,14 +35130,14 @@
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="34" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="30.75" thickBot="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -34979,144 +35145,165 @@
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="409.5">
+      <c r="D2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.25" thickBot="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="60">
+      <c r="D3" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.25" thickBot="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="45">
+      <c r="C7" s="39"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="93" customHeight="1">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:6" ht="93" customHeight="1" thickBot="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" thickBot="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="165">
+      <c r="C10" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="8"/>
+      <c r="C11" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" thickBot="1">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="30">
+      <c r="C12" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8">
@@ -35125,22 +35312,18 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+      <c r="E14" s="33"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8">
@@ -35149,137 +35332,471 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="33"/>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8">
         <v>16</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="90">
+      <c r="E17" s="33"/>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="30">
+      <c r="D18" s="8"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="75">
+      <c r="D19" s="8"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="30">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="8"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8">
         <v>22</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="75">
+      <c r="E23" s="33"/>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="33"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="33"/>
+      <c r="F25" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="60">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="105">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" spans="1:6" ht="30">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:6" ht="135">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F47" s="35"/>
+    </row>
+    <row r="48" spans="1:6" ht="45">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6" ht="195">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="90">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="35" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C28" xr:uid="{E6EFFE04-3B8B-4023-A3E9-B468FA87A6F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C13:C51" xr:uid="{E6EFFE04-3B8B-4023-A3E9-B468FA87A6F4}">
       <formula1>"English,Knowledge Gaps,Emotion,Techniques"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{8F640CE0-5A66-4BCF-853C-BA928306A771}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{8F640CE0-5A66-4BCF-853C-BA928306A771}">
       <formula1>"Task1, Task 2, Task3, Task 4, Task 5, Task 6, Task 7"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F1" location="'Domain-Executing'!A1" display="Domain" xr:uid="{9F0A7594-1C6D-4284-B2F5-E6D35971C0A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -35518,12 +36035,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B8:K8"/>
@@ -35531,6 +36042,12 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35541,7 +36058,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
